--- a/data/error_metrics.xlsx
+++ b/data/error_metrics.xlsx
@@ -10,14 +10,14 @@
     <sheet name="errors" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">errors!$A$1:$T$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">errors!$A$1:$T$17</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>group</t>
   </si>
@@ -94,6 +94,15 @@
     <t>Am</t>
   </si>
   <si>
+    <t>Cg</t>
+  </si>
+  <si>
+    <t>FrOp</t>
+  </si>
+  <si>
+    <t>MIn</t>
+  </si>
+  <si>
     <t>OFr</t>
   </si>
   <si>
@@ -104,6 +113,12 @@
   </si>
   <si>
     <t>PIn</t>
+  </si>
+  <si>
+    <t>POFr</t>
+  </si>
+  <si>
+    <t>PTe</t>
   </si>
   <si>
     <t>TePo</t>
@@ -493,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -581,61 +596,61 @@
         <v>20</v>
       </c>
       <c r="B2" s="2">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3">
-        <v>1.824600909934829</v>
+        <v>2.031141715642418</v>
       </c>
       <c r="D2" s="3">
-        <v>1.594772446902647</v>
+        <v>1.793410911469201</v>
       </c>
       <c r="E2" s="3">
-        <v>2.054429372967012</v>
+        <v>2.268872519815635</v>
       </c>
       <c r="F2" s="3">
-        <v>1.394038012485055</v>
+        <v>1.547078530163399</v>
       </c>
       <c r="G2" s="3">
-        <v>1.205153756199794</v>
+        <v>1.385804158324345</v>
       </c>
       <c r="H2" s="3">
-        <v>1.582922268770315</v>
+        <v>1.708352902002453</v>
       </c>
       <c r="I2" s="3">
-        <v>1.640947666937095</v>
+        <v>1.638211053842655</v>
       </c>
       <c r="J2" s="3">
-        <v>1.390973724493697</v>
+        <v>1.461878090565679</v>
       </c>
       <c r="K2" s="3">
-        <v>1.890921609380494</v>
+        <v>1.814544017119632</v>
       </c>
       <c r="L2" s="3">
-        <v>1.251250233286544</v>
+        <v>1.287363166531836</v>
       </c>
       <c r="M2" s="3">
-        <v>1.092059675395724</v>
+        <v>1.174956884583762</v>
       </c>
       <c r="N2" s="3">
-        <v>1.410440791177363</v>
+        <v>1.399769448479908</v>
       </c>
       <c r="O2" s="3">
-        <v>1.615661297358438</v>
+        <v>1.842253323627485</v>
       </c>
       <c r="P2" s="3">
-        <v>1.384257287137723</v>
+        <v>1.644083608906659</v>
       </c>
       <c r="Q2" s="3">
-        <v>1.847065307579152</v>
+        <v>2.040423038348312</v>
       </c>
       <c r="R2" s="3">
-        <v>0.9185215994323884</v>
+        <v>0.9082417137265482</v>
       </c>
       <c r="S2" s="3">
-        <v>0.7938344263600445</v>
+        <v>0.7827499872865356</v>
       </c>
       <c r="T2" s="3">
-        <v>1.043208772504732</v>
+        <v>1.033733440166561</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -643,61 +658,61 @@
         <v>21</v>
       </c>
       <c r="B3" s="2">
-        <v>192</v>
+        <v>371</v>
       </c>
       <c r="C3" s="3">
-        <v>2.560734036181091</v>
+        <v>2.239400786393506</v>
       </c>
       <c r="D3" s="3">
-        <v>2.350132357009458</v>
+        <v>2.089647326678255</v>
       </c>
       <c r="E3" s="3">
-        <v>2.771335715352724</v>
+        <v>2.389154246108756</v>
       </c>
       <c r="F3" s="3">
-        <v>1.935651596322282</v>
+        <v>1.701109414727734</v>
       </c>
       <c r="G3" s="3">
-        <v>1.744796548620225</v>
+        <v>1.559543035622908</v>
       </c>
       <c r="H3" s="3">
-        <v>2.126506644024338</v>
+        <v>1.84267579383256</v>
       </c>
       <c r="I3" s="3">
-        <v>1.849748767770196</v>
+        <v>1.484872127462879</v>
       </c>
       <c r="J3" s="3">
-        <v>1.618516675360202</v>
+        <v>1.371108802625224</v>
       </c>
       <c r="K3" s="3">
-        <v>2.08098086018019</v>
+        <v>1.598635452300533</v>
       </c>
       <c r="L3" s="3">
-        <v>1.504533760711301</v>
+        <v>1.237237248236552</v>
       </c>
       <c r="M3" s="3">
-        <v>1.325377704360761</v>
+        <v>1.130413711389283</v>
       </c>
       <c r="N3" s="3">
-        <v>1.683689817061841</v>
+        <v>1.344060785083821</v>
       </c>
       <c r="O3" s="3">
-        <v>2.398153375683131</v>
+        <v>2.193708193838435</v>
       </c>
       <c r="P3" s="3">
-        <v>2.161221563701759</v>
+        <v>1.995821073375552</v>
       </c>
       <c r="Q3" s="3">
-        <v>2.635085187664502</v>
+        <v>2.391595314301317</v>
       </c>
       <c r="R3" s="3">
-        <v>1.645037538850941</v>
+        <v>1.510074245009061</v>
       </c>
       <c r="S3" s="3">
-        <v>1.439302053631065</v>
+        <v>1.303664568270046</v>
       </c>
       <c r="T3" s="3">
-        <v>1.850773024070818</v>
+        <v>1.716483921748075</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -705,61 +720,61 @@
         <v>22</v>
       </c>
       <c r="B4" s="2">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="C4" s="3">
-        <v>2.713633918417836</v>
+        <v>2.739059350746933</v>
       </c>
       <c r="D4" s="3">
-        <v>2.471087035025612</v>
+        <v>2.419148483902049</v>
       </c>
       <c r="E4" s="3">
-        <v>2.956180801810059</v>
+        <v>3.058970217591817</v>
       </c>
       <c r="F4" s="3">
-        <v>1.933694293246835</v>
+        <v>1.850471463098852</v>
       </c>
       <c r="G4" s="3">
-        <v>1.733360521670819</v>
+        <v>1.706607186672118</v>
       </c>
       <c r="H4" s="3">
-        <v>2.13402806482285</v>
+        <v>1.994335739525587</v>
       </c>
       <c r="I4" s="3">
-        <v>1.949946333600848</v>
+        <v>2.020101427872577</v>
       </c>
       <c r="J4" s="3">
-        <v>1.740159738080876</v>
+        <v>1.759908096417239</v>
       </c>
       <c r="K4" s="3">
-        <v>2.159732929120822</v>
+        <v>2.280294759327914</v>
       </c>
       <c r="L4" s="3">
-        <v>1.418364762935113</v>
+        <v>1.510750761250487</v>
       </c>
       <c r="M4" s="3">
-        <v>1.263552813339634</v>
+        <v>1.271616228587269</v>
       </c>
       <c r="N4" s="3">
-        <v>1.573176712530593</v>
+        <v>1.749885293913706</v>
       </c>
       <c r="O4" s="3">
-        <v>1.529625738882512</v>
+        <v>1.500987482528018</v>
       </c>
       <c r="P4" s="3">
-        <v>1.356527028919303</v>
+        <v>1.381480818374912</v>
       </c>
       <c r="Q4" s="3">
-        <v>1.702724448845721</v>
+        <v>1.620494146681123</v>
       </c>
       <c r="R4" s="3">
-        <v>1.084861254606138</v>
+        <v>1.145714082345993</v>
       </c>
       <c r="S4" s="3">
-        <v>0.9291161288854336</v>
+        <v>0.9507836191406069</v>
       </c>
       <c r="T4" s="3">
-        <v>1.240606380326842</v>
+        <v>1.340644545551379</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -767,61 +782,61 @@
         <v>23</v>
       </c>
       <c r="B5" s="2">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3">
-        <v>2.362998836091073</v>
+        <v>2.530633429215617</v>
       </c>
       <c r="D5" s="3">
-        <v>1.929887412834332</v>
+        <v>2.087611519742172</v>
       </c>
       <c r="E5" s="3">
-        <v>2.796110259347813</v>
+        <v>2.973655338689062</v>
       </c>
       <c r="F5" s="3">
-        <v>1.824624639127387</v>
+        <v>1.787059564028078</v>
       </c>
       <c r="G5" s="3">
-        <v>1.350840625425883</v>
+        <v>1.493523405256514</v>
       </c>
       <c r="H5" s="3">
-        <v>2.298408652828891</v>
+        <v>2.080595722799643</v>
       </c>
       <c r="I5" s="3">
-        <v>1.868657788369797</v>
+        <v>1.855229607115334</v>
       </c>
       <c r="J5" s="3">
-        <v>1.24700246375491</v>
+        <v>1.507210224805389</v>
       </c>
       <c r="K5" s="3">
-        <v>2.490313112984682</v>
+        <v>2.203248989425278</v>
       </c>
       <c r="L5" s="3">
-        <v>1.296920829122908</v>
+        <v>1.231460789585289</v>
       </c>
       <c r="M5" s="3">
-        <v>0.847824715927725</v>
+        <v>0.9777598126730047</v>
       </c>
       <c r="N5" s="3">
-        <v>1.74601694231809</v>
+        <v>1.485161766497572</v>
       </c>
       <c r="O5" s="3">
-        <v>2.068335365127846</v>
+        <v>2.070812600036938</v>
       </c>
       <c r="P5" s="3">
-        <v>1.53299523917576</v>
+        <v>1.747958657150989</v>
       </c>
       <c r="Q5" s="3">
-        <v>2.603675491079933</v>
+        <v>2.393666542922888</v>
       </c>
       <c r="R5" s="3">
-        <v>1.21353675947783</v>
+        <v>1.311416904880716</v>
       </c>
       <c r="S5" s="3">
-        <v>0.9205084971021398</v>
+        <v>1.040229412010905</v>
       </c>
       <c r="T5" s="3">
-        <v>1.50656502185352</v>
+        <v>1.582604397750527</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -829,61 +844,61 @@
         <v>24</v>
       </c>
       <c r="B6" s="2">
-        <v>147</v>
+        <v>282</v>
       </c>
       <c r="C6" s="3">
-        <v>2.401909679096116</v>
+        <v>2.154708530776692</v>
       </c>
       <c r="D6" s="3">
-        <v>2.155286840277654</v>
+        <v>1.971998126824105</v>
       </c>
       <c r="E6" s="3">
-        <v>2.648532517914579</v>
+        <v>2.337418934729279</v>
       </c>
       <c r="F6" s="3">
-        <v>1.883869081212314</v>
+        <v>1.537663352931913</v>
       </c>
       <c r="G6" s="3">
-        <v>1.628993032206279</v>
+        <v>1.425449240631572</v>
       </c>
       <c r="H6" s="3">
-        <v>2.138745130218349</v>
+        <v>1.649877465232254</v>
       </c>
       <c r="I6" s="3">
-        <v>1.927224774279159</v>
+        <v>1.676552804083904</v>
       </c>
       <c r="J6" s="3">
-        <v>1.688685959423157</v>
+        <v>1.518043116634637</v>
       </c>
       <c r="K6" s="3">
-        <v>2.165763589135161</v>
+        <v>1.835062491533172</v>
       </c>
       <c r="L6" s="3">
-        <v>1.556685318296715</v>
+        <v>1.325196401677749</v>
       </c>
       <c r="M6" s="3">
-        <v>1.341708367711202</v>
+        <v>1.195188353347712</v>
       </c>
       <c r="N6" s="3">
-        <v>1.771662268882227</v>
+        <v>1.455204450007787</v>
       </c>
       <c r="O6" s="3">
-        <v>2.332426290269584</v>
+        <v>1.973244695973271</v>
       </c>
       <c r="P6" s="3">
-        <v>2.010970339005077</v>
+        <v>1.826282369568911</v>
       </c>
       <c r="Q6" s="3">
-        <v>2.653882241534092</v>
+        <v>2.120207022377632</v>
       </c>
       <c r="R6" s="3">
-        <v>1.426526835105399</v>
+        <v>1.190033697936361</v>
       </c>
       <c r="S6" s="3">
-        <v>1.211531909219114</v>
+        <v>1.068301207611688</v>
       </c>
       <c r="T6" s="3">
-        <v>1.641521760991683</v>
+        <v>1.311766188261035</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -891,61 +906,61 @@
         <v>25</v>
       </c>
       <c r="B7" s="2">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3">
-        <v>2.665169438086644</v>
+        <v>2.167479532075529</v>
       </c>
       <c r="D7" s="3">
-        <v>2.397624494900569</v>
+        <v>1.759060333993745</v>
       </c>
       <c r="E7" s="3">
-        <v>2.932714381272719</v>
+        <v>2.575898730157311</v>
       </c>
       <c r="F7" s="3">
-        <v>2.082242471797172</v>
+        <v>1.724083739697714</v>
       </c>
       <c r="G7" s="3">
-        <v>1.831969971878505</v>
+        <v>1.28090648232016</v>
       </c>
       <c r="H7" s="3">
-        <v>2.33251497171584</v>
+        <v>2.167260997075267</v>
       </c>
       <c r="I7" s="3">
-        <v>1.919880124382147</v>
+        <v>1.70116798929562</v>
       </c>
       <c r="J7" s="3">
-        <v>1.656769291491614</v>
+        <v>1.281098506382501</v>
       </c>
       <c r="K7" s="3">
-        <v>2.182990957272679</v>
+        <v>2.121237472208739</v>
       </c>
       <c r="L7" s="3">
-        <v>1.473806728950543</v>
+        <v>1.298245056027065</v>
       </c>
       <c r="M7" s="3">
-        <v>1.278843226638575</v>
+        <v>0.9774660280867441</v>
       </c>
       <c r="N7" s="3">
-        <v>1.668770231262509</v>
+        <v>1.619024083967385</v>
       </c>
       <c r="O7" s="3">
-        <v>2.279294235906579</v>
+        <v>2.257562970223765</v>
       </c>
       <c r="P7" s="3">
-        <v>2.014415087483887</v>
+        <v>1.676517721536254</v>
       </c>
       <c r="Q7" s="3">
-        <v>2.54417338432927</v>
+        <v>2.838608218911276</v>
       </c>
       <c r="R7" s="3">
-        <v>1.32141182642383</v>
+        <v>1.352467169864059</v>
       </c>
       <c r="S7" s="3">
-        <v>1.156934401403918</v>
+        <v>0.8682845632882851</v>
       </c>
       <c r="T7" s="3">
-        <v>1.485889251443742</v>
+        <v>1.836649776439833</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -953,61 +968,61 @@
         <v>26</v>
       </c>
       <c r="B8" s="2">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3">
-        <v>2.056909412068413</v>
+        <v>2.077017028915451</v>
       </c>
       <c r="D8" s="3">
-        <v>1.652747619824586</v>
+        <v>1.543094014831081</v>
       </c>
       <c r="E8" s="3">
-        <v>2.46107120431224</v>
+        <v>2.610940042999821</v>
       </c>
       <c r="F8" s="3">
-        <v>1.389002529602448</v>
+        <v>1.402821256995884</v>
       </c>
       <c r="G8" s="3">
-        <v>1.024974296186791</v>
+        <v>0.950344673889167</v>
       </c>
       <c r="H8" s="3">
-        <v>1.753030763018105</v>
+        <v>1.855297840102602</v>
       </c>
       <c r="I8" s="3">
-        <v>1.3931818820818</v>
+        <v>1.533229144602873</v>
       </c>
       <c r="J8" s="3">
-        <v>1.055461118343064</v>
+        <v>1.106627249842343</v>
       </c>
       <c r="K8" s="3">
-        <v>1.730902645820536</v>
+        <v>1.959831039363402</v>
       </c>
       <c r="L8" s="3">
-        <v>1.142326592547577</v>
+        <v>1.170407584042267</v>
       </c>
       <c r="M8" s="3">
-        <v>0.8212235047333001</v>
+        <v>0.8562888336644553</v>
       </c>
       <c r="N8" s="3">
-        <v>1.463429680361853</v>
+        <v>1.484526334420078</v>
       </c>
       <c r="O8" s="3">
-        <v>1.377311232866888</v>
+        <v>2.625043629493204</v>
       </c>
       <c r="P8" s="3">
-        <v>0.977556984379189</v>
+        <v>1.691552525181605</v>
       </c>
       <c r="Q8" s="3">
-        <v>1.777065481354586</v>
+        <v>3.558534733804803</v>
       </c>
       <c r="R8" s="3">
-        <v>1.025077546292742</v>
+        <v>1.524394333190693</v>
       </c>
       <c r="S8" s="3">
-        <v>0.6857276729064488</v>
+        <v>1.085521365854919</v>
       </c>
       <c r="T8" s="3">
-        <v>1.364427419679035</v>
+        <v>1.963267300526467</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1015,61 +1030,61 @@
         <v>27</v>
       </c>
       <c r="B9" s="2">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3">
-        <v>2.35321568748266</v>
+        <v>2.937103146347966</v>
       </c>
       <c r="D9" s="3">
-        <v>2.119268804711992</v>
+        <v>1.623025468779037</v>
       </c>
       <c r="E9" s="3">
-        <v>2.587162570253328</v>
+        <v>4.251180823916895</v>
       </c>
       <c r="F9" s="3">
-        <v>1.597262831887874</v>
+        <v>1.957529403153803</v>
       </c>
       <c r="G9" s="3">
-        <v>1.385987418998185</v>
+        <v>1.407028924540431</v>
       </c>
       <c r="H9" s="3">
-        <v>1.808538244777562</v>
+        <v>2.508029881767175</v>
       </c>
       <c r="I9" s="3">
-        <v>1.779408364545501</v>
+        <v>1.505891732097244</v>
       </c>
       <c r="J9" s="3">
-        <v>1.546705935144051</v>
+        <v>1.10545522089171</v>
       </c>
       <c r="K9" s="3">
-        <v>2.012110793946952</v>
+        <v>1.906328243302777</v>
       </c>
       <c r="L9" s="3">
-        <v>1.428293690444781</v>
+        <v>1.216742311426976</v>
       </c>
       <c r="M9" s="3">
-        <v>1.228299076024505</v>
+        <v>0.8884370638076371</v>
       </c>
       <c r="N9" s="3">
-        <v>1.628288304865058</v>
+        <v>1.545047559046315</v>
       </c>
       <c r="O9" s="3">
-        <v>1.923713296428122</v>
+        <v>1.668955878285949</v>
       </c>
       <c r="P9" s="3">
-        <v>1.655958479895566</v>
+        <v>1.20378576763809</v>
       </c>
       <c r="Q9" s="3">
-        <v>2.191468112960677</v>
+        <v>2.134125988933807</v>
       </c>
       <c r="R9" s="3">
-        <v>1.447950468052907</v>
+        <v>1.284887814817549</v>
       </c>
       <c r="S9" s="3">
-        <v>1.21529474744285</v>
+        <v>0.8351801721404146</v>
       </c>
       <c r="T9" s="3">
-        <v>1.680606188662963</v>
+        <v>1.734595457494684</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1077,61 +1092,61 @@
         <v>28</v>
       </c>
       <c r="B10" s="2">
-        <v>118</v>
+        <v>206</v>
       </c>
       <c r="C10" s="3">
-        <v>3.303570504563675</v>
+        <v>2.517186810354198</v>
       </c>
       <c r="D10" s="3">
-        <v>3.010468928348977</v>
+        <v>2.321645845336229</v>
       </c>
       <c r="E10" s="3">
-        <v>3.596672080778371</v>
+        <v>2.712727775372167</v>
       </c>
       <c r="F10" s="3">
-        <v>2.269574005450508</v>
+        <v>1.914623140306602</v>
       </c>
       <c r="G10" s="3">
-        <v>1.994949442891439</v>
+        <v>1.734609922762527</v>
       </c>
       <c r="H10" s="3">
-        <v>2.544198568009576</v>
+        <v>2.094636357850679</v>
       </c>
       <c r="I10" s="3">
-        <v>2.007634623822404</v>
+        <v>1.841260275314089</v>
       </c>
       <c r="J10" s="3">
-        <v>1.813383991136691</v>
+        <v>1.566713402286845</v>
       </c>
       <c r="K10" s="3">
-        <v>2.201885256508118</v>
+        <v>2.115807148341333</v>
       </c>
       <c r="L10" s="3">
-        <v>1.379778106166725</v>
+        <v>1.429357363389764</v>
       </c>
       <c r="M10" s="3">
-        <v>1.218935789147269</v>
+        <v>1.177216384398611</v>
       </c>
       <c r="N10" s="3">
-        <v>1.540620423186181</v>
+        <v>1.681498342380918</v>
       </c>
       <c r="O10" s="3">
-        <v>1.336830598875987</v>
+        <v>2.204972450148648</v>
       </c>
       <c r="P10" s="3">
-        <v>1.176459812723294</v>
+        <v>1.993544663034232</v>
       </c>
       <c r="Q10" s="3">
-        <v>1.497201385028679</v>
+        <v>2.416400237263065</v>
       </c>
       <c r="R10" s="3">
-        <v>1.042534777679089</v>
+        <v>1.379439335094748</v>
       </c>
       <c r="S10" s="3">
-        <v>0.9221032165622939</v>
+        <v>1.193380907175959</v>
       </c>
       <c r="T10" s="3">
-        <v>1.162966338795883</v>
+        <v>1.565497763013537</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1139,65 +1154,375 @@
         <v>29</v>
       </c>
       <c r="B11" s="2">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="C11" s="3">
-        <v>3.427352640904383</v>
+        <v>2.104499206600415</v>
       </c>
       <c r="D11" s="3">
-        <v>3.023043107678469</v>
+        <v>1.597934476401978</v>
       </c>
       <c r="E11" s="3">
-        <v>3.831662174130297</v>
+        <v>2.611063936798852</v>
       </c>
       <c r="F11" s="3">
-        <v>2.908937150170099</v>
+        <v>1.590471590448282</v>
       </c>
       <c r="G11" s="3">
-        <v>2.40766398535852</v>
+        <v>1.119497666920097</v>
       </c>
       <c r="H11" s="3">
-        <v>3.410210314981681</v>
+        <v>2.061445513976468</v>
       </c>
       <c r="I11" s="3">
-        <v>3.167185326517406</v>
+        <v>1.67866594650238</v>
       </c>
       <c r="J11" s="3">
-        <v>2.380654631085836</v>
+        <v>1.033924076549399</v>
       </c>
       <c r="K11" s="3">
-        <v>3.953716021948978</v>
+        <v>2.323407816455362</v>
       </c>
       <c r="L11" s="3">
-        <v>2.170165559394968</v>
+        <v>1.367547621447466</v>
       </c>
       <c r="M11" s="3">
-        <v>1.632837567896267</v>
+        <v>0.7563237699541286</v>
       </c>
       <c r="N11" s="3">
-        <v>2.707493550893669</v>
+        <v>1.978771472940804</v>
       </c>
       <c r="O11" s="3">
-        <v>4.19947903178865</v>
+        <v>1.562004231221999</v>
       </c>
       <c r="P11" s="3">
-        <v>3.485031319813563</v>
+        <v>1.13171324941797</v>
       </c>
       <c r="Q11" s="3">
-        <v>4.913926743763738</v>
+        <v>1.992295213026028</v>
       </c>
       <c r="R11" s="3">
-        <v>2.541804449749931</v>
+        <v>1.063413744793658</v>
       </c>
       <c r="S11" s="3">
-        <v>1.747677434300092</v>
+        <v>0.7893935090587169</v>
       </c>
       <c r="T11" s="3">
-        <v>3.335931465199768</v>
+        <v>1.3374339805286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2">
+        <v>323</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2.093776841827883</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.918024133641377</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2.269529550014389</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.388356273403668</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.264195803811985</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1.512516742995351</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1.536744765363758</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1.357237211548816</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.7162523191787</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1.238877554196435</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1.069924449361913</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1.407830659030956</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1.737316960025743</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1.584798310714476</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1.88983560933701</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1.331755553187459</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1.182442161444852</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1.481068944930066</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2">
+        <v>252</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3.227943217715294</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2.916016494635724</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3.539869940794864</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2.163430273703793</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.929022856524041</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2.397837690883546</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2.068101563924671</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1.76863350445784</v>
+      </c>
+      <c r="K13" s="3">
+        <v>2.367569623391503</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1.425559434227802</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.139665429339756</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1.711453439115848</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1.353187870235163</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1.209227557914939</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.497148182555386</v>
+      </c>
+      <c r="R13" s="3">
+        <v>1.14730762632894</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0.9475570546028861</v>
+      </c>
+      <c r="T13" s="3">
+        <v>1.347058198054995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2.520610745473626</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2.002192553657474</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3.039028937289777</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.760058062106424</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1.47988630953361</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2.040229814679238</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1.850563319408672</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1.437498040404846</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2.263628598412497</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1.240517783711941</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.9559570385924153</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1.525078528831467</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1.947522401573117</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1.654265214906704</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>2.240779588239531</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1.248541475630887</v>
+      </c>
+      <c r="S14" s="3">
+        <v>1.018818601564987</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1.478264349696787</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2.112849841815833</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.495742827904844</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.729956855726821</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.201162390607206</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.805244845553085</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1.597079935661327</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1.542632281320344</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1.213660121666477</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1.871604440974211</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1.087074700689341</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.7825450732694746</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1.391604328109207</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1.886743744138323</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1.258487769105645</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>2.514999719171001</v>
+      </c>
+      <c r="R15" s="3">
+        <v>1.349059577459864</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0.9821352428448111</v>
+      </c>
+      <c r="T15" s="3">
+        <v>1.715983912074917</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3.634008422765248</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2.638237582128254</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.629779263402245</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3.20495214232164</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2.181356477947256</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4.228547806696024</v>
+      </c>
+      <c r="I16" s="3">
+        <v>3.055551346360961</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2.18164381057445</v>
+      </c>
+      <c r="K16" s="3">
+        <v>3.929458882147471</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2.001984382333942</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1.491502465248271</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2.512466299419613</v>
+      </c>
+      <c r="O16" s="3">
+        <v>4.800643821407017</v>
+      </c>
+      <c r="P16" s="3">
+        <v>3.334590571128636</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>6.266697071685398</v>
+      </c>
+      <c r="R16" s="3">
+        <v>2.771765468873283</v>
+      </c>
+      <c r="S16" s="3">
+        <v>1.85250661649664</v>
+      </c>
+      <c r="T16" s="3">
+        <v>3.691024321249925</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T12"/>
+  <autoFilter ref="A1:T17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>